--- a/fun.xlsx
+++ b/fun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Ausen2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB1E432-1C8D-4FEF-B4FF-5117743817F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D84C45-ED9C-4DF2-B773-2A7B39C03F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36570" yWindow="-3495" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35265" yWindow="-2190" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcinarios Unicauca 2022" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
   <si>
     <t>CODIGO</t>
   </si>
@@ -99,9 +99,6 @@
     <t>ALEGRIA MARTINEZ VIVIANA</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>FEM</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>8366861-3165460655</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>PROFESOR ASOCIADO</t>
   </si>
   <si>
@@ -325,6 +319,27 @@
   </si>
   <si>
     <t>ANDRES DIAGO</t>
+  </si>
+  <si>
+    <t>ANDRES DIAGO f</t>
+  </si>
+  <si>
+    <t>ANDRES DIAGO g</t>
+  </si>
+  <si>
+    <t>MASc</t>
+  </si>
+  <si>
+    <t>MAS3</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>ACT23</t>
   </si>
 </sst>
 </file>
@@ -643,17 +658,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" customWidth="1"/>
+    <col min="22" max="22" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -670,61 +686,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -735,61 +751,61 @@
         <v>34561628</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>44810</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>7200</v>
       </c>
       <c r="H2">
-        <v>7200</v>
-      </c>
-      <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>1113003</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="K2">
-        <v>1113003</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
+      <c r="M2">
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
         <v>5608354</v>
       </c>
-      <c r="P2" s="1">
+      <c r="O2" s="1">
         <v>26417</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>50</v>
       </c>
-      <c r="S2">
+      <c r="R2">
         <v>29</v>
       </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
       <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2">
+        <v>51</v>
+      </c>
+      <c r="V2">
         <v>8242599</v>
+      </c>
+      <c r="W2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -800,61 +816,61 @@
         <v>76305479</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>44810</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>7200</v>
       </c>
       <c r="H3">
-        <v>7200</v>
-      </c>
-      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
         <v>1173009</v>
       </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
       <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
         <v>5277561</v>
       </c>
-      <c r="P3" s="1">
+      <c r="O3" s="1">
         <v>24596</v>
       </c>
-      <c r="Q3">
+      <c r="P3">
         <v>55</v>
       </c>
-      <c r="S3">
+      <c r="R3">
         <v>29</v>
       </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
       <c r="U3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3">
+        <v>54</v>
+      </c>
+      <c r="V3">
         <v>8231768</v>
+      </c>
+      <c r="W3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -865,61 +881,61 @@
         <v>25270247</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>44810</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>7200</v>
       </c>
       <c r="H4">
-        <v>7200</v>
-      </c>
-      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>1113001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="K4">
-        <v>1113001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
+      <c r="M4">
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
         <v>4563364</v>
       </c>
-      <c r="P4" s="1">
+      <c r="O4" s="1">
         <v>18295</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <v>72</v>
       </c>
-      <c r="S4">
+      <c r="R4">
         <v>29</v>
       </c>
+      <c r="T4" t="s">
+        <v>56</v>
+      </c>
       <c r="U4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4">
+        <v>57</v>
+      </c>
+      <c r="V4">
         <v>8244669</v>
+      </c>
+      <c r="W4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -935,56 +951,56 @@
       <c r="D5" s="1">
         <v>39918</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>2044</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="H5">
-        <v>2044</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>1029001</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5">
-        <v>1029001</v>
-      </c>
       <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2607609</v>
+      </c>
+      <c r="O5" s="1">
+        <v>30578</v>
+      </c>
+      <c r="P5">
+        <v>39</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="T5" t="s">
         <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>2607609</v>
-      </c>
-      <c r="P5" s="1">
-        <v>30578</v>
-      </c>
-      <c r="Q5">
-        <v>39</v>
-      </c>
-      <c r="S5">
-        <v>14</v>
       </c>
       <c r="U5" t="s">
         <v>28</v>
       </c>
-      <c r="V5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5">
+      <c r="V5">
         <v>8278946</v>
+      </c>
+      <c r="W5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -995,61 +1011,61 @@
         <v>10548083</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>44810</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>7200</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>1143006</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>7200</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>1143006</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
+      <c r="M6">
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
         <v>2609844</v>
       </c>
-      <c r="P6" s="1">
+      <c r="O6" s="1">
         <v>23906</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <v>57</v>
       </c>
-      <c r="S6">
+      <c r="R6">
         <v>29</v>
       </c>
+      <c r="T6" t="s">
+        <v>59</v>
+      </c>
       <c r="U6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" t="s">
         <v>61</v>
       </c>
-      <c r="V6" t="s">
-        <v>62</v>
-      </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1060,61 +1076,61 @@
         <v>76306673</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>44823</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>8300</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>1143006</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>8300</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2630560</v>
+      </c>
+      <c r="O7" s="1">
+        <v>24875</v>
+      </c>
+      <c r="P7">
+        <v>54</v>
+      </c>
+      <c r="R7">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" t="s">
         <v>65</v>
       </c>
-      <c r="K7">
-        <v>1143006</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>2630560</v>
-      </c>
-      <c r="P7" s="1">
-        <v>24875</v>
-      </c>
-      <c r="Q7">
-        <v>54</v>
-      </c>
-      <c r="S7">
-        <v>30</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>66</v>
       </c>
-      <c r="V7" t="s">
-        <v>67</v>
-      </c>
       <c r="W7" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1125,61 +1141,61 @@
         <v>34559165</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
         <v>44810</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>7200</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>1143011</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
         <v>37</v>
       </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>7200</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1143011</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
-        <v>39</v>
+      <c r="M8">
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
         <v>2803191</v>
       </c>
-      <c r="P8" s="1">
+      <c r="O8" s="1">
         <v>26126</v>
       </c>
-      <c r="Q8">
+      <c r="P8">
         <v>51</v>
       </c>
-      <c r="S8">
+      <c r="R8">
         <v>29</v>
       </c>
+      <c r="T8" t="s">
+        <v>68</v>
+      </c>
       <c r="U8" t="s">
-        <v>70</v>
-      </c>
-      <c r="V8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8">
+        <v>69</v>
+      </c>
+      <c r="V8">
         <v>8364419</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1190,61 +1206,61 @@
         <v>34563785</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
         <v>44810</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>7200</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>1143011</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9">
-        <v>7200</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>1143011</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
+      <c r="M9">
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
         <v>2474371</v>
       </c>
-      <c r="P9" s="1">
+      <c r="O9" s="1">
         <v>26814</v>
       </c>
-      <c r="Q9">
+      <c r="P9">
         <v>49</v>
       </c>
-      <c r="S9">
+      <c r="R9">
         <v>29</v>
       </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
       <c r="U9" t="s">
-        <v>73</v>
-      </c>
-      <c r="V9" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9">
+        <v>72</v>
+      </c>
+      <c r="V9">
         <v>8230953</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1255,52 +1271,52 @@
         <v>76319254</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>42745</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>4044</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="H10">
-        <v>4044</v>
-      </c>
-      <c r="I10">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>1042001</v>
+      </c>
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="K10">
-        <v>1042001</v>
-      </c>
       <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>1665038</v>
+      </c>
+      <c r="O10" s="1">
+        <v>27098</v>
+      </c>
+      <c r="P10">
+        <v>48</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="T10" t="s">
         <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>1665038</v>
-      </c>
-      <c r="P10" s="1">
-        <v>27098</v>
-      </c>
-      <c r="Q10">
-        <v>48</v>
-      </c>
-      <c r="S10">
-        <v>14</v>
       </c>
       <c r="U10" t="s">
         <v>34</v>
@@ -1309,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="W10" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1320,61 +1336,61 @@
         <v>34511528</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1">
         <v>44810</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>7300</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <v>1143012</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
         <v>37</v>
       </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11">
-        <v>7300</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>1143012</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" t="s">
-        <v>39</v>
+      <c r="M11">
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
         <v>2904796</v>
       </c>
-      <c r="P11" s="1">
+      <c r="O11" s="1">
         <v>23672</v>
       </c>
-      <c r="Q11">
+      <c r="P11">
         <v>57</v>
       </c>
-      <c r="S11">
+      <c r="R11">
         <v>29</v>
       </c>
+      <c r="T11" t="s">
+        <v>74</v>
+      </c>
       <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
         <v>76</v>
       </c>
-      <c r="V11" t="s">
-        <v>77</v>
-      </c>
       <c r="W11" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1385,61 +1401,61 @@
         <v>34533885</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1">
         <v>44810</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>7200</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>1143012</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
         <v>37</v>
       </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12">
-        <v>7200</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>1143012</v>
-      </c>
-      <c r="L12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
+      <c r="M12">
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
         <v>4948741</v>
       </c>
-      <c r="P12" s="1">
+      <c r="O12" s="1">
         <v>20819</v>
       </c>
-      <c r="Q12">
+      <c r="P12">
         <v>65</v>
       </c>
-      <c r="S12">
+      <c r="R12">
         <v>29</v>
       </c>
+      <c r="T12" t="s">
+        <v>78</v>
+      </c>
       <c r="U12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s">
-        <v>81</v>
-      </c>
-      <c r="W12">
+        <v>79</v>
+      </c>
+      <c r="V12">
         <v>8244178</v>
+      </c>
+      <c r="W12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1450,61 +1466,61 @@
         <v>34552993</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1">
         <v>44810</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>7300</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>1143012</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
         <v>37</v>
       </c>
-      <c r="F13">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13">
-        <v>7300</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>1143012</v>
-      </c>
-      <c r="L13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" t="s">
-        <v>39</v>
+      <c r="M13">
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
         <v>6575414</v>
       </c>
-      <c r="P13" s="1">
+      <c r="O13" s="1">
         <v>24948</v>
       </c>
-      <c r="Q13">
+      <c r="P13">
         <v>54</v>
       </c>
-      <c r="S13">
+      <c r="R13">
         <v>29</v>
       </c>
+      <c r="T13" t="s">
+        <v>81</v>
+      </c>
       <c r="U13" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" t="s">
-        <v>84</v>
-      </c>
-      <c r="W13">
+        <v>82</v>
+      </c>
+      <c r="V13">
         <v>3017310897</v>
+      </c>
+      <c r="W13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1515,61 +1531,61 @@
         <v>25517745</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1">
         <v>44810</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>7200</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>1143012</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
         <v>37</v>
       </c>
-      <c r="F14">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14">
-        <v>7200</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>1143012</v>
-      </c>
-      <c r="L14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" t="s">
-        <v>39</v>
+      <c r="M14">
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14">
         <v>5606381</v>
       </c>
-      <c r="P14" s="1">
+      <c r="O14" s="1">
         <v>25320</v>
       </c>
-      <c r="Q14">
+      <c r="P14">
         <v>53</v>
       </c>
-      <c r="S14">
+      <c r="R14">
         <v>29</v>
       </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
       <c r="U14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" t="s">
         <v>86</v>
       </c>
-      <c r="V14" t="s">
-        <v>87</v>
-      </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1580,61 +1596,61 @@
         <v>34551642</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1">
         <v>44823</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>8400</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15">
+        <v>1143012</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" t="s">
         <v>37</v>
       </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>8400</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>3156672</v>
+      </c>
+      <c r="O15" s="1">
+        <v>24742</v>
+      </c>
+      <c r="P15">
+        <v>55</v>
+      </c>
+      <c r="R15">
+        <v>30</v>
+      </c>
+      <c r="T15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U15" t="s">
         <v>90</v>
       </c>
-      <c r="K15">
-        <v>1143012</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>3156672</v>
-      </c>
-      <c r="P15" s="1">
-        <v>24742</v>
-      </c>
-      <c r="Q15">
-        <v>55</v>
-      </c>
-      <c r="S15">
-        <v>30</v>
-      </c>
-      <c r="U15" t="s">
-        <v>91</v>
-      </c>
-      <c r="V15" t="s">
-        <v>92</v>
-      </c>
-      <c r="W15">
+      <c r="V15">
         <v>8382114</v>
+      </c>
+      <c r="W15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1645,61 +1661,61 @@
         <v>30720867</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1">
         <v>44810</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>7300</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>1143004</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
         <v>37</v>
       </c>
-      <c r="F16">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>7300</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>1143004</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" t="s">
-        <v>39</v>
+      <c r="M16">
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16">
         <v>6329785</v>
       </c>
-      <c r="P16" s="1">
+      <c r="O16" s="1">
         <v>21916</v>
       </c>
-      <c r="Q16">
+      <c r="P16">
         <v>62</v>
       </c>
-      <c r="S16">
+      <c r="R16">
         <v>29</v>
       </c>
+      <c r="T16" t="s">
+        <v>92</v>
+      </c>
       <c r="U16" t="s">
-        <v>94</v>
-      </c>
-      <c r="V16" t="s">
-        <v>95</v>
-      </c>
-      <c r="W16">
+        <v>93</v>
+      </c>
+      <c r="V16">
         <v>8235450</v>
+      </c>
+      <c r="W16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -1710,61 +1726,61 @@
         <v>34540781</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1">
         <v>44810</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>7200</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17">
+        <v>1143008</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
         <v>37</v>
       </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17">
-        <v>7200</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>1143008</v>
-      </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" t="s">
-        <v>39</v>
+      <c r="M17">
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>4</v>
-      </c>
-      <c r="O17">
         <v>5606381</v>
       </c>
-      <c r="P17" s="1">
+      <c r="O17" s="1">
         <v>23114</v>
       </c>
-      <c r="Q17">
+      <c r="P17">
         <v>59</v>
       </c>
-      <c r="S17">
+      <c r="R17">
         <v>29</v>
       </c>
+      <c r="T17" t="s">
+        <v>95</v>
+      </c>
       <c r="U17" t="s">
-        <v>97</v>
-      </c>
-      <c r="V17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W17">
+        <v>96</v>
+      </c>
+      <c r="V17">
         <v>8316144</v>
+      </c>
+      <c r="W17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -1775,61 +1791,191 @@
         <v>1001086246</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1">
         <v>44810</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>7200</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18">
+        <v>1143008</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
         <v>37</v>
       </c>
-      <c r="F18">
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>5006381</v>
+      </c>
+      <c r="O18" s="1">
+        <v>23114</v>
+      </c>
+      <c r="P18">
+        <v>59</v>
+      </c>
+      <c r="R18">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18">
+        <v>8316144</v>
+      </c>
+      <c r="W18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>1001086247</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E20">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18">
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20">
         <v>7200</v>
       </c>
-      <c r="I18">
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="J18" t="s">
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>1143008</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>5006381</v>
+      </c>
+      <c r="O20" s="1">
+        <v>23114</v>
+      </c>
+      <c r="P20">
+        <v>59</v>
+      </c>
+      <c r="R20">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20" t="s">
+        <v>96</v>
+      </c>
+      <c r="V20">
+        <v>8316144</v>
+      </c>
+      <c r="W20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1001086248</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E21">
         <v>40</v>
       </c>
-      <c r="K18">
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21">
+        <v>7200</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21">
         <v>1143008</v>
       </c>
-      <c r="L18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18">
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="O18">
-        <v>5606381</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="N21">
+        <v>5006381</v>
+      </c>
+      <c r="O21" s="1">
         <v>23114</v>
       </c>
-      <c r="Q18">
+      <c r="P21">
         <v>59</v>
       </c>
-      <c r="S18">
+      <c r="R21">
         <v>29</v>
       </c>
-      <c r="U18" t="s">
-        <v>97</v>
-      </c>
-      <c r="V18" t="s">
-        <v>98</v>
-      </c>
-      <c r="W18">
+      <c r="T21" t="s">
+        <v>95</v>
+      </c>
+      <c r="U21" t="s">
+        <v>96</v>
+      </c>
+      <c r="V21">
         <v>8316144</v>
+      </c>
+      <c r="W21" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/fun.xlsx
+++ b/fun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Ausen2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D84C45-ED9C-4DF2-B773-2A7B39C03F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F7DDD-EF63-4065-92E5-F1D59A9DF847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35265" yWindow="-2190" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcinarios Unicauca 2022" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>CODIGO</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>ACT23</t>
+  </si>
+  <si>
+    <t>MESSI g</t>
+  </si>
+  <si>
+    <t>DEPTO D</t>
   </si>
 </sst>
 </file>
@@ -658,14 +664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="11" max="11" width="20.21875" customWidth="1"/>
     <col min="12" max="12" width="26.109375" customWidth="1"/>
@@ -1978,6 +1985,71 @@
         <v>104</v>
       </c>
     </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3444</v>
+      </c>
+      <c r="B22">
+        <v>2020055</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>7200</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>5006381</v>
+      </c>
+      <c r="O22" s="1">
+        <v>23114</v>
+      </c>
+      <c r="P22">
+        <v>59</v>
+      </c>
+      <c r="R22">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>95</v>
+      </c>
+      <c r="U22" t="s">
+        <v>96</v>
+      </c>
+      <c r="V22">
+        <v>8316144</v>
+      </c>
+      <c r="W22" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fun.xlsx
+++ b/fun.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Ausen2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F7DDD-EF63-4065-92E5-F1D59A9DF847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F29828E-8550-4D25-970D-95F9F06045BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcinarios Unicauca 2022" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="235">
   <si>
     <t>CODIGO</t>
   </si>
@@ -48,9 +49,6 @@
     <t>GENERO</t>
   </si>
   <si>
-    <t>CARGO</t>
-  </si>
-  <si>
     <t>GRADO</t>
   </si>
   <si>
@@ -318,42 +316,445 @@
     <t>CALLE 5A   21 69</t>
   </si>
   <si>
-    <t>ANDRES DIAGO</t>
-  </si>
-  <si>
-    <t>ANDRES DIAGO f</t>
-  </si>
-  <si>
-    <t>ANDRES DIAGO g</t>
-  </si>
-  <si>
-    <t>MASc</t>
-  </si>
-  <si>
-    <t>MAS3</t>
-  </si>
-  <si>
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>ACT23</t>
-  </si>
-  <si>
-    <t>MESSI g</t>
-  </si>
-  <si>
-    <t>DEPTO D</t>
+    <t>OJEDA OJEDA JOSE REYMIR</t>
+  </si>
+  <si>
+    <t>PROFESIONAL ESPECIALIZADO</t>
+  </si>
+  <si>
+    <t>DIV. ADMITIVA. Y DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>jojeda@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CRA 15   8N 124 CASA F22</t>
+  </si>
+  <si>
+    <t>ARMERO CUARAN JHONATAN DAVID</t>
+  </si>
+  <si>
+    <t>OPERARIO CALIFICADO</t>
+  </si>
+  <si>
+    <t>DECANATURA</t>
+  </si>
+  <si>
+    <t>FACULTAD DE INGEN. ELECTRONICA</t>
+  </si>
+  <si>
+    <t>jhonatanarmero@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>VEREDA EL HOGAR   TUNIA</t>
+  </si>
+  <si>
+    <t>URIBE ORDOÑEZ JUAN DAVID</t>
+  </si>
+  <si>
+    <t>TECNICO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>DIV. ADMISIONES, RGTR.</t>
+  </si>
+  <si>
+    <t>uodavid@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CRA 7A   33N 49</t>
+  </si>
+  <si>
+    <t>LOPEZ ARCOS CAROLINA</t>
+  </si>
+  <si>
+    <t>OFICINA JURIDICA</t>
+  </si>
+  <si>
+    <t>carolinarcos@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CRA 21A # 8-71</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CAMACHO DIANA MARCELA</t>
+  </si>
+  <si>
+    <t>dimarc@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CRA 3 # 28N 202</t>
+  </si>
+  <si>
+    <t>GUTIERREZ HURTADO ALBERTO</t>
+  </si>
+  <si>
+    <t>DEPTO CIENCIA FISIOLOGICAS</t>
+  </si>
+  <si>
+    <t>agutierrez@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>ATARDECERES DE LA PRADERA  CASA C 7</t>
+  </si>
+  <si>
+    <t>PETITGRAND  BERTRAND JEAN MICHAEL</t>
+  </si>
+  <si>
+    <t>DEPTO LENGUAS</t>
+  </si>
+  <si>
+    <t>FAC. DE CIENCIAS HUMANAS Y SOC</t>
+  </si>
+  <si>
+    <t>bertrand@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>VEREDA LAS CHOSAS</t>
+  </si>
+  <si>
+    <t>CASTRO FRANCO EDGAR ALFONSO</t>
+  </si>
+  <si>
+    <t>PROFESOR TITULAR</t>
+  </si>
+  <si>
+    <t>DEPTO MEDICINA SOCIAL Y FAMILI</t>
+  </si>
+  <si>
+    <t>eacastro@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 16   18N 161</t>
+  </si>
+  <si>
+    <t>8233017-3007826694</t>
+  </si>
+  <si>
+    <t>CARRILLO SAENZ AMPARO DEL ROCIO</t>
+  </si>
+  <si>
+    <t>DEPTO FILOSOFIA</t>
+  </si>
+  <si>
+    <t>asaenz@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CALLE 14N   6 24  APTO  301</t>
+  </si>
+  <si>
+    <t>8237989 - 3147446515</t>
+  </si>
+  <si>
+    <t>CHAMORRO HERNANDEZ GUSTAVO HERNANDO</t>
+  </si>
+  <si>
+    <t>gchamorro@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 2   16N 18  CASA 78</t>
+  </si>
+  <si>
+    <t>DEPTO FISICA</t>
+  </si>
+  <si>
+    <t>FAC. DE CIENCIAS NAT. Y EXAC.</t>
+  </si>
+  <si>
+    <t>ARTEAGA PASOS JAVIER ARTURO</t>
+  </si>
+  <si>
+    <t>DEPTO CIENCIAS ECONOMICAS</t>
+  </si>
+  <si>
+    <t>FAC. DE CIENC CONT, ECON, Y AD</t>
+  </si>
+  <si>
+    <t>javiera@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>BARRIO OSPINA PEREZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ ORTEGA MARIA EUGENIA</t>
+  </si>
+  <si>
+    <t>eugeniam@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 2D   1N 21</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ GUARIN SALOMON</t>
+  </si>
+  <si>
+    <t>sarodriguez@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>URBANIZACION AIDALUCIA  CASA 408</t>
+  </si>
+  <si>
+    <t>GIL SOLANO JULIO CESAR</t>
+  </si>
+  <si>
+    <t>DEPTO ING AMBIENTAL Y SANITARI</t>
+  </si>
+  <si>
+    <t>FACULTAD DE INGENIERIA CIVIL</t>
+  </si>
+  <si>
+    <t>jucegil@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 13   73CN 24</t>
+  </si>
+  <si>
+    <t>8246521 - 3127835511</t>
+  </si>
+  <si>
+    <t>QUINTERO GONZALEZ JULIE ALEXANDRA</t>
+  </si>
+  <si>
+    <t>jquintero@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>Calle 53 No   13N 72 casa 13</t>
+  </si>
+  <si>
+    <t>CERON SANCHEZ RUBEN DARIO</t>
+  </si>
+  <si>
+    <t>DEPTO DE EDUCACI Y PEDAGOGIA</t>
+  </si>
+  <si>
+    <t>rdceron@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CALLE 19BN  4B 32</t>
+  </si>
+  <si>
+    <t>ORDOÑEZ GUERRERO JOSE RAUL</t>
+  </si>
+  <si>
+    <t>jrordonez@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CALLE 57N   10 46 IINT 10</t>
+  </si>
+  <si>
+    <t>OROZCO CALAMBAS EDNA LOURDES</t>
+  </si>
+  <si>
+    <t>DEPTO BILOGIA</t>
+  </si>
+  <si>
+    <t>elorozco@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 7   10N  18</t>
+  </si>
+  <si>
+    <t>8369575-3113214587</t>
+  </si>
+  <si>
+    <t>VARONA BALCAZAR GIOVANNI</t>
+  </si>
+  <si>
+    <t>gvarona@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CALLE 73AN   12A 33</t>
+  </si>
+  <si>
+    <t>CAMARGO ANTOLINEZ CLAUDIA MARCELA</t>
+  </si>
+  <si>
+    <t>ccamargo@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CALLE 29N   6C 28</t>
+  </si>
+  <si>
+    <t>CHAMORRO IBARRA EDWIN CESAR</t>
+  </si>
+  <si>
+    <t>DEPTO MATEMATICAS</t>
+  </si>
+  <si>
+    <t>echamo@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 6C   27CN 49</t>
+  </si>
+  <si>
+    <t>CHAMORRO BURBANO SAULO ANDRES</t>
+  </si>
+  <si>
+    <t>DEPTO EDUC FISICA DEP Y RECREA</t>
+  </si>
+  <si>
+    <t>sauloandres@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 10A   7  41</t>
+  </si>
+  <si>
+    <t>TERRIOS GUZMAN LORENA MARITZA</t>
+  </si>
+  <si>
+    <t>DEPTO VIAS Y TRANSPORTE</t>
+  </si>
+  <si>
+    <t>lterrios@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CRA  17 NO  56N0121</t>
+  </si>
+  <si>
+    <t>POLANCO LOPEZ HUGO ARMANDO</t>
+  </si>
+  <si>
+    <t>DEPTO DERECHO PRIVADO</t>
+  </si>
+  <si>
+    <t>hpolanco@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 2A   1 07  CASA 18</t>
+  </si>
+  <si>
+    <t>8363316-3206761490</t>
+  </si>
+  <si>
+    <t>CAMACHO BENAVIDES RUBEN ARMANDO</t>
+  </si>
+  <si>
+    <t>DEPTO CONSTRUCCION</t>
+  </si>
+  <si>
+    <t>ruben@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CALLE 4   1 33</t>
+  </si>
+  <si>
+    <t>FRANCIS  ERIC ANDREW</t>
+  </si>
+  <si>
+    <t>PROFESOR CATEGORIA - B</t>
+  </si>
+  <si>
+    <t>efrancis@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 28   2A 28</t>
+  </si>
+  <si>
+    <t>BUITRON RUIZ SANDRA LORENA</t>
+  </si>
+  <si>
+    <t>PROFESOR INSTRUCTOR O AUXILIAR</t>
+  </si>
+  <si>
+    <t>DEPTO SISTEMAS</t>
+  </si>
+  <si>
+    <t>sandrabr@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CARRERA 2   22N 55  CASA 6</t>
+  </si>
+  <si>
+    <t>ASTAIZA SAMBONI MARY ELIZABETH</t>
+  </si>
+  <si>
+    <t>mastaiza@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>CALLE 26EN   4 36</t>
+  </si>
+  <si>
+    <t>NARVAEZ BURBANO ELVIA NANCY</t>
+  </si>
+  <si>
+    <t>CALLE 18   1E 44</t>
+  </si>
+  <si>
+    <t>8369321-3216040630</t>
+  </si>
+  <si>
+    <t>TORO CHALA ELIZABETH</t>
+  </si>
+  <si>
+    <t>DEPTO CIENCIAS ADMINISTRATIVAS</t>
+  </si>
+  <si>
+    <t>elizabethtoro@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>DIAGONAL 50N   18 744  CASA B 15</t>
+  </si>
+  <si>
+    <t>8329992-3117012866</t>
+  </si>
+  <si>
+    <t>VALDERRUTEN VIDAL ALFREDO</t>
+  </si>
+  <si>
+    <t>DEPTO DE DISEÑO</t>
+  </si>
+  <si>
+    <t>CARRERA 8   60AN 03</t>
+  </si>
+  <si>
+    <t>FEM2</t>
+  </si>
+  <si>
+    <t>MASq</t>
+  </si>
+  <si>
+    <t>FEMq</t>
+  </si>
+  <si>
+    <t>alfredovidalunicauca.edu.co</t>
+  </si>
+  <si>
+    <t>nnarvaezunicauca.edu.co</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE DIAGO</t>
+  </si>
+  <si>
+    <t>ANDRESDIAG@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>ACTIV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -378,14 +779,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,22 +1071,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" customWidth="1"/>
+    <col min="18" max="18" width="31.5546875" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" customWidth="1"/>
+    <col min="20" max="20" width="18.88671875" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,13 +1154,10 @@
         <v>21</v>
       </c>
       <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>920222</v>
       </c>
@@ -758,7 +1165,7 @@
         <v>34561628</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
         <v>44810</v>
@@ -767,55 +1174,52 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>7200</v>
-      </c>
-      <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>1113003</v>
+      </c>
+      <c r="J2" t="s">
         <v>38</v>
-      </c>
-      <c r="J2">
-        <v>1113003</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
-        <v>40</v>
+      <c r="L2">
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
         <v>5608354</v>
       </c>
-      <c r="O2" s="1">
+      <c r="N2" s="1">
         <v>26417</v>
       </c>
-      <c r="P2">
+      <c r="O2">
         <v>50</v>
       </c>
-      <c r="R2">
-        <v>29</v>
+      <c r="Q2">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
       </c>
       <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2">
+      <c r="U2">
         <v>8242599</v>
       </c>
-      <c r="W2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1920222</v>
       </c>
@@ -823,7 +1227,7 @@
         <v>76305479</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1">
         <v>44810</v>
@@ -832,55 +1236,52 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>7200</v>
-      </c>
-      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3">
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3">
         <v>1173009</v>
       </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
       <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
         <v>5277561</v>
       </c>
-      <c r="O3" s="1">
+      <c r="N3" s="1">
         <v>24596</v>
       </c>
-      <c r="P3">
+      <c r="O3">
         <v>55</v>
       </c>
-      <c r="R3">
-        <v>29</v>
+      <c r="Q3">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>52</v>
       </c>
       <c r="T3" t="s">
         <v>53</v>
       </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3">
+      <c r="U3">
         <v>8231768</v>
       </c>
-      <c r="W3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2520222</v>
       </c>
@@ -888,7 +1289,7 @@
         <v>25270247</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1">
         <v>44810</v>
@@ -897,55 +1298,52 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>7200</v>
-      </c>
-      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4">
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
         <v>1113001</v>
       </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
         <v>4563364</v>
       </c>
-      <c r="O4" s="1">
+      <c r="N4" s="1">
         <v>18295</v>
       </c>
-      <c r="P4">
+      <c r="O4">
         <v>72</v>
       </c>
-      <c r="R4">
-        <v>29</v>
+      <c r="Q4">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
       </c>
       <c r="T4" t="s">
         <v>56</v>
       </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4">
+      <c r="U4">
         <v>8244669</v>
       </c>
-      <c r="W4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>34323720</v>
       </c>
@@ -953,7 +1351,7 @@
         <v>34323720</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>39918</v>
@@ -962,55 +1360,52 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>2044</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>1029001</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5">
-        <v>1029001</v>
-      </c>
       <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2607609</v>
+      </c>
+      <c r="N5" s="1">
+        <v>30578</v>
+      </c>
+      <c r="O5">
+        <v>39</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
         <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>2607609</v>
-      </c>
-      <c r="O5" s="1">
-        <v>30578</v>
-      </c>
-      <c r="P5">
-        <v>39</v>
-      </c>
-      <c r="R5">
-        <v>14</v>
       </c>
       <c r="T5" t="s">
         <v>27</v>
       </c>
-      <c r="U5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5">
+      <c r="U5">
         <v>8278946</v>
       </c>
-      <c r="W5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6520222</v>
       </c>
@@ -1018,7 +1413,7 @@
         <v>10548083</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1">
         <v>44810</v>
@@ -1027,40 +1422,40 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>7200</v>
-      </c>
-      <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6">
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
         <v>1143006</v>
       </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
       <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
         <v>2609844</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N6" s="1">
         <v>23906</v>
       </c>
-      <c r="P6">
+      <c r="O6">
         <v>57</v>
       </c>
-      <c r="R6">
-        <v>29</v>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>58</v>
       </c>
       <c r="T6" t="s">
         <v>59</v>
@@ -1069,13 +1464,10 @@
         <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6920223</v>
       </c>
@@ -1083,7 +1475,7 @@
         <v>76306673</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1">
         <v>44823</v>
@@ -1092,40 +1484,40 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>1143006</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>2630560</v>
+      </c>
+      <c r="N7" s="1">
+        <v>24875</v>
+      </c>
+      <c r="O7">
+        <v>54</v>
+      </c>
+      <c r="Q7">
         <v>30</v>
       </c>
-      <c r="G7">
-        <v>8300</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="S7" t="s">
         <v>63</v>
-      </c>
-      <c r="J7">
-        <v>1143006</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>2630560</v>
-      </c>
-      <c r="O7" s="1">
-        <v>24875</v>
-      </c>
-      <c r="P7">
-        <v>54</v>
-      </c>
-      <c r="R7">
-        <v>30</v>
       </c>
       <c r="T7" t="s">
         <v>64</v>
@@ -1134,13 +1526,10 @@
         <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7020222</v>
       </c>
@@ -1148,7 +1537,7 @@
         <v>34559165</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1">
         <v>44810</v>
@@ -1157,55 +1546,52 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>7200</v>
-      </c>
-      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8">
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
         <v>1143011</v>
       </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
       <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
         <v>2803191</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N8" s="1">
         <v>26126</v>
       </c>
-      <c r="P8">
+      <c r="O8">
         <v>51</v>
       </c>
-      <c r="R8">
-        <v>29</v>
+      <c r="Q8">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>67</v>
       </c>
       <c r="T8" t="s">
         <v>68</v>
       </c>
-      <c r="U8" t="s">
-        <v>69</v>
-      </c>
-      <c r="V8">
+      <c r="U8">
         <v>8364419</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7320222</v>
       </c>
@@ -1213,7 +1599,7 @@
         <v>34563785</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>44810</v>
@@ -1222,55 +1608,52 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>7200</v>
-      </c>
-      <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9">
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
         <v>1143011</v>
       </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
       <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
         <v>2474371</v>
       </c>
-      <c r="O9" s="1">
+      <c r="N9" s="1">
         <v>26814</v>
       </c>
-      <c r="P9">
+      <c r="O9">
         <v>49</v>
       </c>
-      <c r="R9">
-        <v>29</v>
+      <c r="Q9">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
       </c>
       <c r="T9" t="s">
         <v>71</v>
       </c>
-      <c r="U9" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9">
+      <c r="U9">
         <v>8230953</v>
       </c>
-      <c r="W9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>76319254</v>
       </c>
@@ -1278,7 +1661,7 @@
         <v>76319254</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>42745</v>
@@ -1287,40 +1670,40 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="G10">
-        <v>4044</v>
-      </c>
-      <c r="H10">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>1042001</v>
+      </c>
+      <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="J10">
-        <v>1042001</v>
-      </c>
       <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1665038</v>
+      </c>
+      <c r="N10" s="1">
+        <v>27098</v>
+      </c>
+      <c r="O10">
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
         <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>1665038</v>
-      </c>
-      <c r="O10" s="1">
-        <v>27098</v>
-      </c>
-      <c r="P10">
-        <v>48</v>
-      </c>
-      <c r="R10">
-        <v>14</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -1329,13 +1712,10 @@
         <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8220222</v>
       </c>
@@ -1343,7 +1723,7 @@
         <v>34511528</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1">
         <v>44810</v>
@@ -1352,40 +1732,40 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>7300</v>
-      </c>
-      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>1143012</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
         <v>36</v>
       </c>
-      <c r="J11">
-        <v>1143012</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
+      <c r="L11">
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
         <v>2904796</v>
       </c>
-      <c r="O11" s="1">
+      <c r="N11" s="1">
         <v>23672</v>
       </c>
-      <c r="P11">
+      <c r="O11">
         <v>57</v>
       </c>
-      <c r="R11">
-        <v>29</v>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>73</v>
       </c>
       <c r="T11" t="s">
         <v>74</v>
@@ -1394,13 +1774,10 @@
         <v>75</v>
       </c>
       <c r="V11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8320222</v>
       </c>
@@ -1408,7 +1785,7 @@
         <v>34533885</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1">
         <v>44810</v>
@@ -1417,55 +1794,52 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>7200</v>
-      </c>
-      <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12">
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
         <v>1143012</v>
       </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
       <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
         <v>4948741</v>
       </c>
-      <c r="O12" s="1">
+      <c r="N12" s="1">
         <v>20819</v>
       </c>
-      <c r="P12">
+      <c r="O12">
         <v>65</v>
       </c>
-      <c r="R12">
-        <v>29</v>
+      <c r="Q12">
+        <v>29</v>
+      </c>
+      <c r="S12" t="s">
+        <v>77</v>
       </c>
       <c r="T12" t="s">
         <v>78</v>
       </c>
-      <c r="U12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12">
+      <c r="U12">
         <v>8244178</v>
       </c>
-      <c r="W12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8520222</v>
       </c>
@@ -1473,7 +1847,7 @@
         <v>34552993</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1">
         <v>44810</v>
@@ -1482,55 +1856,52 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13">
-        <v>7300</v>
-      </c>
-      <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>1143012</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
         <v>36</v>
       </c>
-      <c r="J13">
-        <v>1143012</v>
-      </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
+      <c r="L13">
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
         <v>6575414</v>
       </c>
-      <c r="O13" s="1">
+      <c r="N13" s="1">
         <v>24948</v>
       </c>
-      <c r="P13">
+      <c r="O13">
         <v>54</v>
       </c>
-      <c r="R13">
-        <v>29</v>
+      <c r="Q13">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>80</v>
       </c>
       <c r="T13" t="s">
         <v>81</v>
       </c>
-      <c r="U13" t="s">
-        <v>82</v>
-      </c>
-      <c r="V13">
+      <c r="U13">
         <v>3017310897</v>
       </c>
-      <c r="W13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8620222</v>
       </c>
@@ -1538,7 +1909,7 @@
         <v>25517745</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1">
         <v>44810</v>
@@ -1547,40 +1918,40 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <v>7200</v>
-      </c>
-      <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
         <v>1143012</v>
       </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
       <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
         <v>5606381</v>
       </c>
-      <c r="O14" s="1">
+      <c r="N14" s="1">
         <v>25320</v>
       </c>
-      <c r="P14">
+      <c r="O14">
         <v>53</v>
       </c>
-      <c r="R14">
-        <v>29</v>
+      <c r="Q14">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>83</v>
       </c>
       <c r="T14" t="s">
         <v>84</v>
@@ -1589,13 +1960,10 @@
         <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>86</v>
-      </c>
-      <c r="W14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9020223</v>
       </c>
@@ -1603,7 +1971,7 @@
         <v>34551642</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1">
         <v>44823</v>
@@ -1612,55 +1980,52 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>8400</v>
-      </c>
-      <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>1143012</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>3156672</v>
+      </c>
+      <c r="N15" s="1">
+        <v>24742</v>
+      </c>
+      <c r="O15">
+        <v>55</v>
+      </c>
+      <c r="Q15">
+        <v>30</v>
+      </c>
+      <c r="S15" t="s">
         <v>88</v>
-      </c>
-      <c r="J15">
-        <v>1143012</v>
-      </c>
-      <c r="K15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>3156672</v>
-      </c>
-      <c r="O15" s="1">
-        <v>24742</v>
-      </c>
-      <c r="P15">
-        <v>55</v>
-      </c>
-      <c r="R15">
-        <v>30</v>
       </c>
       <c r="T15" t="s">
         <v>89</v>
       </c>
-      <c r="U15" t="s">
-        <v>90</v>
-      </c>
-      <c r="V15">
+      <c r="U15">
         <v>8382114</v>
       </c>
-      <c r="W15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10120222</v>
       </c>
@@ -1668,7 +2033,7 @@
         <v>30720867</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1">
         <v>44810</v>
@@ -1677,55 +2042,52 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>7300</v>
-      </c>
-      <c r="H16">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>1143004</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
         <v>36</v>
       </c>
-      <c r="J16">
-        <v>1143004</v>
-      </c>
-      <c r="K16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
+      <c r="L16">
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
         <v>6329785</v>
       </c>
-      <c r="O16" s="1">
+      <c r="N16" s="1">
         <v>21916</v>
       </c>
-      <c r="P16">
+      <c r="O16">
         <v>62</v>
       </c>
-      <c r="R16">
-        <v>29</v>
+      <c r="Q16">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
       </c>
       <c r="T16" t="s">
         <v>92</v>
       </c>
-      <c r="U16" t="s">
-        <v>93</v>
-      </c>
-      <c r="V16">
+      <c r="U16">
         <v>8235450</v>
       </c>
-      <c r="W16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10520222</v>
       </c>
@@ -1733,7 +2095,7 @@
         <v>34540781</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1">
         <v>44810</v>
@@ -1742,315 +2104,2103 @@
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17">
-        <v>7200</v>
-      </c>
-      <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17">
         <v>1143008</v>
       </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
       <c r="K17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17">
         <v>5606381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="N17" s="1">
         <v>23114</v>
       </c>
-      <c r="P17">
+      <c r="O17">
         <v>59</v>
       </c>
-      <c r="R17">
-        <v>29</v>
+      <c r="Q17">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>94</v>
       </c>
       <c r="T17" t="s">
         <v>95</v>
       </c>
-      <c r="U17" t="s">
-        <v>96</v>
-      </c>
-      <c r="V17">
+      <c r="U17">
         <v>8316144</v>
       </c>
-      <c r="W17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>23</v>
+        <v>10542613</v>
       </c>
       <c r="B18">
-        <v>1001086246</v>
+        <v>10542613</v>
       </c>
       <c r="C18" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="1">
+        <v>44805</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <v>1046002</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>4063165</v>
+      </c>
+      <c r="N18" s="1">
+        <v>23037</v>
+      </c>
+      <c r="O18">
+        <v>59</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" t="s">
+        <v>101</v>
+      </c>
+      <c r="U18">
+        <v>8232546</v>
+      </c>
+      <c r="V18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1061533520</v>
+      </c>
+      <c r="B19">
+        <v>1061533520</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>1191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1966979</v>
+      </c>
+      <c r="N19" s="1">
+        <v>32942</v>
+      </c>
+      <c r="O19">
+        <v>32</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T19" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19">
+        <v>3186614086</v>
+      </c>
+      <c r="V19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1061707215</v>
+      </c>
+      <c r="B20">
+        <v>1061707215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43070</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20">
+        <v>1102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2021496</v>
+      </c>
+      <c r="N20" s="1">
+        <v>32176</v>
+      </c>
+      <c r="O20">
+        <v>34</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="S20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" t="s">
+        <v>112</v>
+      </c>
+      <c r="U20">
+        <v>3012616590</v>
+      </c>
+      <c r="V20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1061711142</v>
+      </c>
+      <c r="B21">
+        <v>1061711142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44727</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>1024</v>
+      </c>
+      <c r="J21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2369490</v>
+      </c>
+      <c r="N21" s="1">
+        <v>32389</v>
+      </c>
+      <c r="O21">
+        <v>34</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="S21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" t="s">
+        <v>116</v>
+      </c>
+      <c r="U21">
+        <v>3117475909</v>
+      </c>
+      <c r="V21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1061738898</v>
+      </c>
+      <c r="B22">
+        <v>1061738898</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>1046003</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1612900</v>
+      </c>
+      <c r="N22" s="1">
+        <v>33402</v>
+      </c>
+      <c r="O22">
+        <v>31</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="S22" t="s">
+        <v>118</v>
+      </c>
+      <c r="T22" t="s">
+        <v>119</v>
+      </c>
+      <c r="U22">
+        <v>8368557</v>
+      </c>
+      <c r="V22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10620222</v>
+      </c>
+      <c r="B23">
+        <v>16655777</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="1">
         <v>44810</v>
       </c>
-      <c r="E18">
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>1143002</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>2854815</v>
+      </c>
+      <c r="N23" s="1">
+        <v>22128</v>
+      </c>
+      <c r="O23">
+        <v>62</v>
+      </c>
+      <c r="Q23">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U23">
+        <v>3014486285</v>
+      </c>
+      <c r="V23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11920222</v>
+      </c>
+      <c r="B24">
+        <v>263360</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E24">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24">
+        <v>1153006</v>
+      </c>
+      <c r="J24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>4619921</v>
+      </c>
+      <c r="N24" s="1">
+        <v>24942</v>
+      </c>
+      <c r="O24">
+        <v>54</v>
+      </c>
+      <c r="Q24">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" t="s">
+        <v>128</v>
+      </c>
+      <c r="U24">
+        <v>8209800</v>
+      </c>
+      <c r="V24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>12420222</v>
+      </c>
+      <c r="B25">
+        <v>10549763</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25">
+        <v>1143007</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>7407328</v>
+      </c>
+      <c r="N25" s="1">
+        <v>24175</v>
+      </c>
+      <c r="O25">
+        <v>56</v>
+      </c>
+      <c r="Q25">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>132</v>
+      </c>
+      <c r="T25" t="s">
+        <v>133</v>
+      </c>
+      <c r="U25" t="s">
+        <v>134</v>
+      </c>
+      <c r="V25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12820222</v>
+      </c>
+      <c r="B26">
+        <v>34562476</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>1153003</v>
+      </c>
+      <c r="J26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>2638781</v>
+      </c>
+      <c r="N26" s="1">
+        <v>26275</v>
+      </c>
+      <c r="O26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>29</v>
+      </c>
+      <c r="S26" t="s">
+        <v>137</v>
+      </c>
+      <c r="T26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" t="s">
+        <v>139</v>
+      </c>
+      <c r="V26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12920222</v>
+      </c>
+      <c r="B27">
+        <v>16265499</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <v>1151</v>
+      </c>
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>5606381</v>
+      </c>
+      <c r="N27" s="1">
+        <v>22358</v>
+      </c>
+      <c r="O27">
+        <v>61</v>
+      </c>
+      <c r="Q27">
+        <v>29</v>
+      </c>
+      <c r="S27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U27">
+        <v>8202621</v>
+      </c>
+      <c r="V27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>129320222</v>
+      </c>
+      <c r="B28">
+        <v>13064249</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28">
+        <v>1133003</v>
+      </c>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>5829321</v>
+      </c>
+      <c r="N28" s="1">
+        <v>24999</v>
+      </c>
+      <c r="O28">
+        <v>54</v>
+      </c>
+      <c r="Q28">
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>148</v>
+      </c>
+      <c r="T28" t="s">
+        <v>149</v>
+      </c>
+      <c r="U28">
+        <v>3216093050</v>
+      </c>
+      <c r="V28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>13420223</v>
+      </c>
+      <c r="B29">
+        <v>34560822</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44823</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29">
+        <v>1151</v>
+      </c>
+      <c r="J29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" t="s">
+        <v>126</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>3551256</v>
+      </c>
+      <c r="N29" s="1">
+        <v>26483</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
         <v>30</v>
       </c>
-      <c r="G18">
-        <v>7200</v>
-      </c>
-      <c r="H18">
+      <c r="S29" t="s">
+        <v>151</v>
+      </c>
+      <c r="T29" t="s">
+        <v>152</v>
+      </c>
+      <c r="U29">
+        <v>3113332052</v>
+      </c>
+      <c r="V29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>13520223</v>
+      </c>
+      <c r="B30">
+        <v>76327536</v>
+      </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44823</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18">
-        <v>1143008</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30">
+        <v>1151</v>
+      </c>
+      <c r="J30" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>3156672</v>
+      </c>
+      <c r="N30" s="1">
+        <v>28429</v>
+      </c>
+      <c r="O30">
         <v>44</v>
       </c>
-      <c r="L18" t="s">
+      <c r="Q30">
+        <v>30</v>
+      </c>
+      <c r="S30" t="s">
+        <v>154</v>
+      </c>
+      <c r="T30" t="s">
+        <v>155</v>
+      </c>
+      <c r="U30">
+        <v>8390672</v>
+      </c>
+      <c r="V30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>14020223</v>
+      </c>
+      <c r="B31">
+        <v>10542093</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44823</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31">
+        <v>1183006</v>
+      </c>
+      <c r="J31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>2367504</v>
+      </c>
+      <c r="N31" s="1">
+        <v>22716</v>
+      </c>
+      <c r="O31">
+        <v>60</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="S31" t="s">
+        <v>159</v>
+      </c>
+      <c r="T31" t="s">
+        <v>160</v>
+      </c>
+      <c r="U31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>14420222</v>
+      </c>
+      <c r="B32">
+        <v>66809244</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32">
+        <v>1151</v>
+      </c>
+      <c r="J32" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>6135781</v>
+      </c>
+      <c r="N32" s="1">
+        <v>25238</v>
+      </c>
+      <c r="O32">
+        <v>53</v>
+      </c>
+      <c r="Q32">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>163</v>
+      </c>
+      <c r="T32" t="s">
+        <v>164</v>
+      </c>
+      <c r="U32">
+        <v>8209800</v>
+      </c>
+      <c r="V32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>14720222</v>
+      </c>
+      <c r="B33">
+        <v>10539198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>37</v>
       </c>
-      <c r="M18">
+      <c r="I33">
+        <v>1163002</v>
+      </c>
+      <c r="J33" t="s">
+        <v>166</v>
+      </c>
+      <c r="K33" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="N18">
-        <v>5006381</v>
-      </c>
-      <c r="O18" s="1">
-        <v>23114</v>
-      </c>
-      <c r="P18">
-        <v>59</v>
-      </c>
-      <c r="R18">
-        <v>29</v>
-      </c>
-      <c r="T18" t="s">
-        <v>95</v>
-      </c>
-      <c r="U18" t="s">
-        <v>96</v>
-      </c>
-      <c r="V18">
-        <v>8316144</v>
-      </c>
-      <c r="W18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="M33">
+        <v>5113151</v>
+      </c>
+      <c r="N33" s="1">
+        <v>22407</v>
+      </c>
+      <c r="O33">
+        <v>61</v>
+      </c>
+      <c r="Q33">
+        <v>29</v>
+      </c>
+      <c r="S33" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" t="s">
+        <v>168</v>
+      </c>
+      <c r="U33">
+        <v>8202039</v>
+      </c>
+      <c r="V33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>14920222</v>
+      </c>
+      <c r="B34">
+        <v>10538293</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34">
+        <v>1163002</v>
+      </c>
+      <c r="J34" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>5277561</v>
+      </c>
+      <c r="N34" s="1">
+        <v>22128</v>
+      </c>
+      <c r="O34">
+        <v>62</v>
+      </c>
+      <c r="Q34">
+        <v>29</v>
+      </c>
+      <c r="S34" t="s">
+        <v>170</v>
+      </c>
+      <c r="T34" t="s">
+        <v>171</v>
+      </c>
+      <c r="U34">
+        <v>3004894335</v>
+      </c>
+      <c r="V34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>15920222</v>
+      </c>
+      <c r="B35">
+        <v>34555465</v>
+      </c>
+      <c r="C35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>1163001</v>
+      </c>
+      <c r="J35" t="s">
+        <v>173</v>
+      </c>
+      <c r="K35" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>6035162</v>
+      </c>
+      <c r="N35" s="1">
+        <v>25459</v>
+      </c>
+      <c r="O35">
+        <v>53</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+      <c r="S35" t="s">
+        <v>174</v>
+      </c>
+      <c r="T35" t="s">
+        <v>175</v>
+      </c>
+      <c r="U35" t="s">
+        <v>176</v>
+      </c>
+      <c r="V35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>16120222</v>
+      </c>
+      <c r="B36">
+        <v>10539779</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36">
+        <v>1163001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" t="s">
+        <v>144</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>7205433</v>
+      </c>
+      <c r="N36" s="1">
+        <v>22391</v>
+      </c>
+      <c r="O36">
+        <v>61</v>
+      </c>
+      <c r="Q36">
+        <v>29</v>
+      </c>
+      <c r="S36" t="s">
+        <v>178</v>
+      </c>
+      <c r="T36" t="s">
+        <v>179</v>
+      </c>
+      <c r="U36">
+        <v>8368338</v>
+      </c>
+      <c r="V36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16420222</v>
+      </c>
+      <c r="B37">
+        <v>40028454</v>
+      </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>1001086247</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>1163003</v>
+      </c>
+      <c r="J37" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" t="s">
+        <v>144</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>5885878</v>
+      </c>
+      <c r="N37" s="1">
+        <v>25131</v>
+      </c>
+      <c r="O37">
+        <v>53</v>
+      </c>
+      <c r="Q37">
+        <v>29</v>
+      </c>
+      <c r="S37" t="s">
+        <v>181</v>
+      </c>
+      <c r="T37" t="s">
+        <v>182</v>
+      </c>
+      <c r="U37">
+        <v>8363109</v>
+      </c>
+      <c r="V37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>17720222</v>
+      </c>
+      <c r="B38">
+        <v>18125322</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="1">
         <v>44810</v>
       </c>
-      <c r="E20">
+      <c r="E38">
         <v>40</v>
       </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>7200</v>
-      </c>
-      <c r="H20">
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20">
-        <v>1143008</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>1163004</v>
+      </c>
+      <c r="J38" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>5606381</v>
+      </c>
+      <c r="N38" s="1">
+        <v>25672</v>
+      </c>
+      <c r="O38">
+        <v>52</v>
+      </c>
+      <c r="Q38">
+        <v>29</v>
+      </c>
+      <c r="S38" t="s">
+        <v>185</v>
+      </c>
+      <c r="T38" t="s">
+        <v>186</v>
+      </c>
+      <c r="U38">
+        <v>3118376809</v>
+      </c>
+      <c r="V38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18125836</v>
+      </c>
+      <c r="B39">
+        <v>18125836</v>
+      </c>
+      <c r="C39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43794</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39">
+        <v>1163006</v>
+      </c>
+      <c r="J39" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" t="s">
+        <v>144</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6425143</v>
+      </c>
+      <c r="N39" s="1">
+        <v>26408</v>
+      </c>
+      <c r="O39">
+        <v>50</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>189</v>
+      </c>
+      <c r="T39" t="s">
+        <v>190</v>
+      </c>
+      <c r="U39">
+        <v>8220407</v>
+      </c>
+      <c r="V39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>18720222</v>
+      </c>
+      <c r="B40">
+        <v>34551362</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40">
+        <v>1183007</v>
+      </c>
+      <c r="J40" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>5606381</v>
+      </c>
+      <c r="N40" s="1">
+        <v>24780</v>
+      </c>
+      <c r="O40">
+        <v>54</v>
+      </c>
+      <c r="Q40">
+        <v>29</v>
+      </c>
+      <c r="S40" t="s">
+        <v>193</v>
+      </c>
+      <c r="T40" t="s">
+        <v>194</v>
+      </c>
+      <c r="U40">
+        <v>8209800</v>
+      </c>
+      <c r="V40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>19020223</v>
+      </c>
+      <c r="B41">
+        <v>12144883</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44823</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41">
+        <v>1173004</v>
+      </c>
+      <c r="J41" t="s">
+        <v>196</v>
+      </c>
+      <c r="K41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>2630560</v>
+      </c>
+      <c r="N41" s="1">
+        <v>28580</v>
+      </c>
+      <c r="O41">
         <v>44</v>
       </c>
-      <c r="L20" t="s">
+      <c r="Q41">
+        <v>30</v>
+      </c>
+      <c r="S41" t="s">
+        <v>197</v>
+      </c>
+      <c r="T41" t="s">
+        <v>198</v>
+      </c>
+      <c r="U41" t="s">
+        <v>199</v>
+      </c>
+      <c r="V41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20220222</v>
+      </c>
+      <c r="B42">
+        <v>79291837</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>37</v>
       </c>
-      <c r="M20">
+      <c r="I42">
+        <v>1183002</v>
+      </c>
+      <c r="J42" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="N20">
-        <v>5006381</v>
-      </c>
-      <c r="O20" s="1">
-        <v>23114</v>
-      </c>
-      <c r="P20">
-        <v>59</v>
-      </c>
-      <c r="R20">
-        <v>29</v>
-      </c>
-      <c r="T20" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" t="s">
-        <v>96</v>
-      </c>
-      <c r="V20">
-        <v>8316144</v>
-      </c>
-      <c r="W20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="M42">
+        <v>4948741</v>
+      </c>
+      <c r="N42" s="1">
+        <v>23306</v>
+      </c>
+      <c r="O42">
+        <v>58</v>
+      </c>
+      <c r="Q42">
+        <v>29</v>
+      </c>
+      <c r="S42" t="s">
+        <v>202</v>
+      </c>
+      <c r="T42" t="s">
+        <v>203</v>
+      </c>
+      <c r="U42">
+        <v>8242505</v>
+      </c>
+      <c r="V42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>215920222</v>
+      </c>
+      <c r="B43">
+        <v>431023</v>
+      </c>
+      <c r="C43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43">
+        <v>1153006</v>
+      </c>
+      <c r="J43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" t="s">
+        <v>126</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>4126691</v>
+      </c>
+      <c r="N43" s="1">
+        <v>27262</v>
+      </c>
+      <c r="O43">
+        <v>48</v>
+      </c>
+      <c r="Q43">
+        <v>30</v>
+      </c>
+      <c r="S43" t="s">
+        <v>206</v>
+      </c>
+      <c r="T43" t="s">
+        <v>207</v>
+      </c>
+      <c r="U43">
+        <v>3225588606</v>
+      </c>
+      <c r="V43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>220820222</v>
+      </c>
+      <c r="B44">
+        <v>25282056</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>1001086248</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44">
+        <v>1193003</v>
+      </c>
+      <c r="J44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>6214698</v>
+      </c>
+      <c r="N44" s="1">
+        <v>28884</v>
+      </c>
+      <c r="O44">
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <v>29</v>
+      </c>
+      <c r="S44" t="s">
+        <v>211</v>
+      </c>
+      <c r="T44" t="s">
+        <v>212</v>
+      </c>
+      <c r="U44">
+        <v>8366330</v>
+      </c>
+      <c r="V44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>23220222</v>
+      </c>
+      <c r="B45">
+        <v>25285935</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="1">
         <v>44810</v>
       </c>
-      <c r="E21">
+      <c r="E45">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21">
-        <v>7200</v>
-      </c>
-      <c r="H21">
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21">
-        <v>1143008</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="H45" t="s">
         <v>37</v>
       </c>
-      <c r="M21">
+      <c r="I45">
+        <v>1153006</v>
+      </c>
+      <c r="J45" t="s">
+        <v>125</v>
+      </c>
+      <c r="K45" t="s">
+        <v>126</v>
+      </c>
+      <c r="L45">
         <v>4</v>
       </c>
-      <c r="N21">
-        <v>5006381</v>
-      </c>
-      <c r="O21" s="1">
-        <v>23114</v>
-      </c>
-      <c r="P21">
-        <v>59</v>
-      </c>
-      <c r="R21">
-        <v>29</v>
-      </c>
-      <c r="T21" t="s">
-        <v>95</v>
-      </c>
-      <c r="U21" t="s">
-        <v>96</v>
-      </c>
-      <c r="V21">
-        <v>8316144</v>
-      </c>
-      <c r="W21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3444</v>
-      </c>
-      <c r="B22">
-        <v>2020055</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="M45">
+        <v>5606381</v>
+      </c>
+      <c r="N45" s="1">
+        <v>29270</v>
+      </c>
+      <c r="O45">
+        <v>42</v>
+      </c>
+      <c r="Q45">
+        <v>29</v>
+      </c>
+      <c r="S45" t="s">
+        <v>214</v>
+      </c>
+      <c r="T45" t="s">
+        <v>215</v>
+      </c>
+      <c r="U45">
+        <v>3006083889</v>
+      </c>
+      <c r="V45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>24020222</v>
+      </c>
+      <c r="B46">
+        <v>34546236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="1">
         <v>44810</v>
       </c>
-      <c r="E22">
+      <c r="E46">
         <v>40</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46">
+        <v>1153006</v>
+      </c>
+      <c r="J46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>4948741</v>
+      </c>
+      <c r="N46" s="1">
+        <v>24030</v>
+      </c>
+      <c r="O46">
+        <v>56</v>
+      </c>
+      <c r="Q46">
+        <v>29</v>
+      </c>
+      <c r="S46" t="s">
+        <v>231</v>
+      </c>
+      <c r="T46" t="s">
+        <v>217</v>
+      </c>
+      <c r="U46" t="s">
+        <v>218</v>
+      </c>
+      <c r="V46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>243120222</v>
+      </c>
+      <c r="B47">
+        <v>34567510</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47">
+        <v>1133001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" t="s">
+        <v>147</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>4521275</v>
+      </c>
+      <c r="N47" s="1">
+        <v>27338</v>
+      </c>
+      <c r="O47">
+        <v>47</v>
+      </c>
+      <c r="Q47">
         <v>30</v>
       </c>
-      <c r="G22">
-        <v>7200</v>
-      </c>
-      <c r="H22">
+      <c r="S47" t="s">
+        <v>221</v>
+      </c>
+      <c r="T47" t="s">
+        <v>222</v>
+      </c>
+      <c r="U47" t="s">
+        <v>223</v>
+      </c>
+      <c r="V47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>24620222</v>
+      </c>
+      <c r="B48">
+        <v>16768923</v>
+      </c>
+      <c r="C48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22">
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48">
+        <v>1113002</v>
+      </c>
+      <c r="J48" t="s">
+        <v>225</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>3726188</v>
+      </c>
+      <c r="N48" s="1">
+        <v>25229</v>
+      </c>
+      <c r="O48">
+        <v>53</v>
+      </c>
+      <c r="Q48">
+        <v>29</v>
+      </c>
+      <c r="S48" t="s">
+        <v>230</v>
+      </c>
+      <c r="T48" t="s">
+        <v>226</v>
+      </c>
+      <c r="U48">
+        <v>8231560</v>
+      </c>
+      <c r="V48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1001086246</v>
+      </c>
+      <c r="B49">
+        <v>1001086246</v>
+      </c>
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44810</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49">
+        <v>1113002</v>
+      </c>
+      <c r="J49" t="s">
+        <v>225</v>
+      </c>
+      <c r="K49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>3726188</v>
+      </c>
+      <c r="N49" s="1">
+        <v>25229</v>
+      </c>
+      <c r="O49">
+        <v>53</v>
+      </c>
+      <c r="Q49">
+        <v>29</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T49" t="s">
+        <v>226</v>
+      </c>
+      <c r="U49">
+        <v>8231560</v>
+      </c>
+      <c r="V49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S49" r:id="rId1" xr:uid="{A4F265B5-22E0-4376-B119-2D6DF8A26233}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DBBFE8-9598-498D-8BF5-08802E715B83}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22">
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="N22">
-        <v>5006381</v>
-      </c>
-      <c r="O22" s="1">
-        <v>23114</v>
-      </c>
-      <c r="P22">
-        <v>59</v>
-      </c>
-      <c r="R22">
-        <v>29</v>
-      </c>
-      <c r="T22" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" t="s">
-        <v>96</v>
-      </c>
-      <c r="V22">
-        <v>8316144</v>
-      </c>
-      <c r="W22" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>